--- a/Documentacion/Evidencias/S02 - Sinc - Plantilla Project Charter Básico.xlsx
+++ b/Documentacion/Evidencias/S02 - Sinc - Plantilla Project Charter Básico.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Universidad\Ciclo 6\Curso Integrador I\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Roy Axel\Documents\GitHub\Proyecto-LL-SI1-2023-1\Documentacion\Evidencias\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{101B7BAB-4635-4B92-9484-A0453E05FCD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EF1A67C-F39A-46C8-967F-51F9E088BA75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -226,9 +226,6 @@
     <t>Todos los integrantes deben trabajar organizados y cooperar</t>
   </si>
   <si>
-    <t>Este proyecto no tiene costos</t>
-  </si>
-  <si>
     <t>Todos los integrantes</t>
   </si>
   <si>
@@ -272,6 +269,9 @@
   </si>
   <si>
     <t>Alex Santisteban LLauce</t>
+  </si>
+  <si>
+    <t>Para poder usar el envio de e-mail con base a las tarjetas de credito se quiere un costo de $300</t>
   </si>
 </sst>
 </file>
@@ -827,21 +827,117 @@
     <xf numFmtId="14" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -885,102 +981,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1006,9 +1006,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1046,9 +1046,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1081,26 +1081,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1133,26 +1116,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1328,8 +1294,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D2"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -1345,29 +1311,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="55"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="45"/>
     </row>
     <row r="2" spans="1:7" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="57"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="59" t="s">
+      <c r="C2" s="47"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="60"/>
+      <c r="F2" s="50"/>
       <c r="G2" s="22" t="s">
         <v>27</v>
       </c>
@@ -1385,163 +1351,163 @@
       <c r="D3" s="3">
         <v>45101</v>
       </c>
-      <c r="E3" s="61" t="s">
+      <c r="E3" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="60"/>
+      <c r="F3" s="50"/>
       <c r="G3" s="22" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="63"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="65"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="30"/>
     </row>
     <row r="5" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="66" t="s">
+      <c r="A5" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="45"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="27"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="63"/>
-      <c r="C6" s="63"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="46" t="s">
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="63"/>
-      <c r="G6" s="65"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="30"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="76" t="s">
+      <c r="A7" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="28"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="27" t="s">
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="28"/>
-      <c r="G7" s="45"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="27"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="27" t="s">
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="28"/>
-      <c r="G8" s="45"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="27"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="27" t="s">
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="F9" s="28"/>
-      <c r="G9" s="45"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="27"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="27"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="45"/>
+      <c r="A10" s="38"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="27"/>
     </row>
     <row r="11" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="46" t="s">
+      <c r="A11" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="47"/>
-      <c r="C11" s="47"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="62" t="s">
+      <c r="B11" s="53"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="74"/>
-      <c r="G11" s="75"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="41"/>
     </row>
     <row r="12" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="49" t="s">
+      <c r="A12" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="66" t="s">
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="28"/>
-      <c r="G12" s="45"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="27"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="46" t="s">
+      <c r="A13" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="63"/>
-      <c r="C13" s="63"/>
-      <c r="D13" s="63"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="65"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="30"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="67" t="s">
-        <v>38</v>
-      </c>
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="45"/>
+      <c r="A14" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="27"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="68" t="s">
+      <c r="A15" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="69"/>
-      <c r="C15" s="69"/>
-      <c r="D15" s="69"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="69"/>
-      <c r="G15" s="70"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="34"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="71" t="s">
+      <c r="A16" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="72"/>
-      <c r="C16" s="72"/>
-      <c r="D16" s="73"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="37"/>
       <c r="E16" s="12" t="s">
         <v>14</v>
       </c>
@@ -1553,14 +1519,14 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A17" s="50" t="s">
-        <v>40</v>
-      </c>
-      <c r="B17" s="51"/>
-      <c r="C17" s="51"/>
-      <c r="D17" s="52"/>
+      <c r="A17" s="56" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="57"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="58"/>
       <c r="E17" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F17" s="10">
         <v>45033</v>
@@ -1568,14 +1534,14 @@
       <c r="G17" s="11"/>
     </row>
     <row r="18" spans="1:7" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A18" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="29"/>
+      <c r="A18" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="26"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="59"/>
       <c r="E18" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F18" s="8">
         <v>45047</v>
@@ -1583,14 +1549,14 @@
       <c r="G18" s="4"/>
     </row>
     <row r="19" spans="1:7" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A19" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="B19" s="28"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="29"/>
+      <c r="A19" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="26"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="59"/>
       <c r="E19" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F19" s="8">
         <v>45068</v>
@@ -1598,14 +1564,14 @@
       <c r="G19" s="4"/>
     </row>
     <row r="20" spans="1:7" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A20" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="B20" s="28"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="29"/>
+      <c r="A20" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="26"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="59"/>
       <c r="E20" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F20" s="8">
         <v>45082</v>
@@ -1613,14 +1579,14 @@
       <c r="G20" s="4"/>
     </row>
     <row r="21" spans="1:7" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A21" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="B21" s="31"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="32"/>
+      <c r="A21" s="62" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="63"/>
+      <c r="C21" s="63"/>
+      <c r="D21" s="64"/>
       <c r="E21" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F21" s="23">
         <v>45096</v>
@@ -1628,14 +1594,14 @@
       <c r="G21" s="15"/>
     </row>
     <row r="22" spans="1:7" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A22" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="B22" s="40"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="40"/>
+      <c r="A22" s="72" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="72"/>
+      <c r="C22" s="72"/>
+      <c r="D22" s="72"/>
       <c r="E22" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F22" s="24">
         <v>45131</v>
@@ -1643,14 +1609,14 @@
       <c r="G22" s="21"/>
     </row>
     <row r="23" spans="1:7" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A23" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="26"/>
+      <c r="A23" s="60" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" s="60"/>
+      <c r="C23" s="60"/>
+      <c r="D23" s="61"/>
       <c r="E23" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F23" s="24">
         <v>45131</v>
@@ -1658,78 +1624,103 @@
       <c r="G23" s="21"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="38" t="s">
+      <c r="A24" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="38"/>
-      <c r="C24" s="38"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="35" t="s">
+      <c r="B24" s="70"/>
+      <c r="C24" s="70"/>
+      <c r="D24" s="70"/>
+      <c r="E24" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="F24" s="36"/>
-      <c r="G24" s="37"/>
+      <c r="F24" s="68"/>
+      <c r="G24" s="69"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B25" s="39" t="s">
+      <c r="B25" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="40"/>
-      <c r="D25" s="40"/>
+      <c r="C25" s="72"/>
+      <c r="D25" s="72"/>
       <c r="E25" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="F25" s="41" t="s">
+      <c r="F25" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="G25" s="42"/>
+      <c r="G25" s="74"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B26" s="40" t="s">
+      <c r="B26" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="40"/>
-      <c r="D26" s="40"/>
+      <c r="C26" s="72"/>
+      <c r="D26" s="72"/>
       <c r="E26" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F26" s="43" t="s">
-        <v>47</v>
-      </c>
-      <c r="G26" s="44"/>
+      <c r="F26" s="75" t="s">
+        <v>46</v>
+      </c>
+      <c r="G26" s="76"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="B27" s="40"/>
-      <c r="C27" s="40"/>
-      <c r="D27" s="40"/>
+      <c r="B27" s="72"/>
+      <c r="C27" s="72"/>
+      <c r="D27" s="72"/>
       <c r="E27" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="F27" s="43" t="s">
-        <v>47</v>
-      </c>
-      <c r="G27" s="44"/>
+      <c r="F27" s="75" t="s">
+        <v>46</v>
+      </c>
+      <c r="G27" s="76"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
-      <c r="B28" s="40"/>
-      <c r="C28" s="40"/>
-      <c r="D28" s="40"/>
+      <c r="B28" s="72"/>
+      <c r="C28" s="72"/>
+      <c r="D28" s="72"/>
       <c r="E28" s="19"/>
-      <c r="F28" s="33"/>
-      <c r="G28" s="34"/>
+      <c r="F28" s="65"/>
+      <c r="G28" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="A4:G4"/>
     <mergeCell ref="A5:G5"/>
     <mergeCell ref="A13:G13"/>
     <mergeCell ref="A14:G14"/>
@@ -1746,31 +1737,6 @@
     <mergeCell ref="A7:D7"/>
     <mergeCell ref="A8:D8"/>
     <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="A22:D22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
